--- a/projects/tRNAseq_third-gen/sample_list.xlsx
+++ b/projects/tRNAseq_third-gen/sample_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/tRNAseq_third-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995EC65D-B33C-D84E-9ACF-8C1D549A394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F89F5B-0370-C24B-A511-9929839A1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="5060" windowWidth="22900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,60 +474,6 @@
     <t>40h_NoOx</t>
   </si>
   <si>
-    <t>P3_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P1_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P1_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P2_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P2_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P3_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P4_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P4_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P5_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P5_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P6_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P6_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P7_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P7_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P8_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P8_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>P9_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>P9_R2.fastq.gz</t>
-  </si>
-  <si>
     <t>l1Sp</t>
   </si>
   <si>
@@ -583,6 +529,60 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>P1_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P1_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P2_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P2_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P3_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P3_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P4_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P4_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P5_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P5_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P6_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P6_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P7_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P7_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P8_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P8_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P9_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>P9_R2.fastq.bz2</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1034,16 +1034,16 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>124</v>
@@ -1063,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1075,16 +1075,16 @@
         <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>124</v>
@@ -1104,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1116,16 +1116,16 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>124</v>
@@ -1145,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1157,16 +1157,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>124</v>
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1198,16 +1198,16 @@
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>125</v>
@@ -1227,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -1239,16 +1239,16 @@
         <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>125</v>
@@ -1268,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -1280,16 +1280,16 @@
         <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>125</v>
@@ -1309,10 +1309,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1321,16 +1321,16 @@
         <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>125</v>
@@ -1350,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
@@ -1362,16 +1362,16 @@
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>126</v>
@@ -1391,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
@@ -1403,16 +1403,16 @@
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>126</v>
@@ -1432,10 +1432,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
@@ -1444,16 +1444,16 @@
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>126</v>
@@ -1473,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
@@ -1485,16 +1485,16 @@
         <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>126</v>
@@ -1514,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -1526,16 +1526,16 @@
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>127</v>
@@ -1555,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
@@ -1567,16 +1567,16 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>127</v>
@@ -1596,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1608,16 +1608,16 @@
         <v>14</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>127</v>
@@ -1637,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
@@ -1649,16 +1649,16 @@
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>127</v>
@@ -1678,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -1690,16 +1690,16 @@
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
         <v>128</v>
@@ -1719,10 +1719,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
@@ -1731,16 +1731,16 @@
         <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
         <v>128</v>
@@ -1760,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
@@ -1772,16 +1772,16 @@
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
         <v>128</v>
@@ -1801,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1813,16 +1813,16 @@
         <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
         <v>128</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -1854,16 +1854,16 @@
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
         <v>129</v>
@@ -1883,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
@@ -1895,16 +1895,16 @@
         <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s">
         <v>129</v>
@@ -1924,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -1936,16 +1936,16 @@
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s">
         <v>129</v>
@@ -1965,10 +1965,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1977,16 +1977,16 @@
         <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s">
         <v>129</v>
@@ -2006,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -2018,16 +2018,16 @@
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
         <v>130</v>
@@ -2047,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
@@ -2059,16 +2059,16 @@
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s">
         <v>130</v>
@@ -2088,10 +2088,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
@@ -2100,16 +2100,16 @@
         <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s">
         <v>130</v>
@@ -2129,10 +2129,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>13</v>
@@ -2141,16 +2141,16 @@
         <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s">
         <v>130</v>
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>13</v>
@@ -2182,16 +2182,16 @@
         <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s">
         <v>131</v>
@@ -2211,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>13</v>
@@ -2223,16 +2223,16 @@
         <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K31" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s">
         <v>131</v>
@@ -2252,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>13</v>
@@ -2264,16 +2264,16 @@
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s">
         <v>131</v>
@@ -2293,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>13</v>
@@ -2305,16 +2305,16 @@
         <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s">
         <v>131</v>
@@ -2334,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>13</v>
@@ -2346,16 +2346,16 @@
         <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s">
         <v>132</v>
@@ -2375,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>13</v>
@@ -2387,16 +2387,16 @@
         <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
         <v>132</v>
@@ -2416,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>13</v>
@@ -2428,16 +2428,16 @@
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K36" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s">
         <v>132</v>
@@ -2457,10 +2457,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>13</v>
@@ -2469,16 +2469,16 @@
         <v>16</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
         <v>132</v>
@@ -2498,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -2510,16 +2510,16 @@
         <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="L38" t="s">
         <v>137</v>
@@ -2539,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>17</v>
@@ -2551,16 +2551,16 @@
         <v>14</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s">
         <v>138</v>
@@ -2580,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>17</v>
@@ -2592,16 +2592,16 @@
         <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s">
         <v>139</v>
@@ -2621,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>17</v>
@@ -2633,16 +2633,16 @@
         <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s">
         <v>140</v>
@@ -2662,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>17</v>
@@ -2674,16 +2674,16 @@
         <v>14</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s">
         <v>141</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -2715,16 +2715,16 @@
         <v>14</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s">
         <v>142</v>
@@ -2744,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>17</v>
@@ -2756,16 +2756,16 @@
         <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s">
         <v>143</v>
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>17</v>
@@ -2797,16 +2797,16 @@
         <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s">
         <v>144</v>
@@ -2826,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -2838,16 +2838,16 @@
         <v>14</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s">
         <v>145</v>
@@ -2867,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>17</v>
@@ -2879,16 +2879,16 @@
         <v>14</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s">
         <v>146</v>
@@ -2908,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>17</v>
@@ -2920,16 +2920,16 @@
         <v>14</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L48" t="s">
         <v>147</v>
@@ -2949,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>17</v>
@@ -2961,16 +2961,16 @@
         <v>14</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s">
         <v>148</v>
@@ -2990,10 +2990,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>17</v>
@@ -3002,16 +3002,16 @@
         <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I50" t="s">
         <v>15</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s">
         <v>137</v>
@@ -3031,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>17</v>
@@ -3043,16 +3043,16 @@
         <v>16</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s">
         <v>138</v>
@@ -3072,10 +3072,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>17</v>
@@ -3084,16 +3084,16 @@
         <v>16</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s">
         <v>139</v>
@@ -3113,10 +3113,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>17</v>
@@ -3125,16 +3125,16 @@
         <v>16</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s">
         <v>140</v>
@@ -3154,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>17</v>
@@ -3166,16 +3166,16 @@
         <v>16</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s">
         <v>141</v>
@@ -3195,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>17</v>
@@ -3207,16 +3207,16 @@
         <v>16</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s">
         <v>142</v>
@@ -3236,10 +3236,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>17</v>
@@ -3248,16 +3248,16 @@
         <v>16</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s">
         <v>143</v>
@@ -3277,10 +3277,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>17</v>
@@ -3289,16 +3289,16 @@
         <v>16</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s">
         <v>144</v>
@@ -3318,10 +3318,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>17</v>
@@ -3330,16 +3330,16 @@
         <v>16</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L58" t="s">
         <v>145</v>
@@ -3359,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>17</v>
@@ -3371,16 +3371,16 @@
         <v>16</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s">
         <v>146</v>
@@ -3400,10 +3400,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>17</v>
@@ -3412,16 +3412,16 @@
         <v>16</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I60" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s">
         <v>147</v>
@@ -3441,10 +3441,10 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>17</v>
@@ -3453,16 +3453,16 @@
         <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="L61" t="s">
         <v>148</v>
@@ -3482,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>17</v>
@@ -3494,16 +3494,16 @@
         <v>18</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s">
         <v>137</v>
@@ -3523,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>17</v>
@@ -3535,16 +3535,16 @@
         <v>18</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s">
         <v>138</v>
@@ -3564,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>17</v>
@@ -3576,16 +3576,16 @@
         <v>18</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I64" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s">
         <v>139</v>
@@ -3605,10 +3605,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>17</v>
@@ -3617,16 +3617,16 @@
         <v>18</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I65" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s">
         <v>140</v>
@@ -3646,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>17</v>
@@ -3658,16 +3658,16 @@
         <v>18</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I66" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s">
         <v>141</v>
@@ -3687,10 +3687,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>17</v>
@@ -3699,16 +3699,16 @@
         <v>18</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I67" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s">
         <v>142</v>
@@ -3728,10 +3728,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>17</v>
@@ -3740,16 +3740,16 @@
         <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I68" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s">
         <v>143</v>
@@ -3769,10 +3769,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>17</v>
@@ -3781,16 +3781,16 @@
         <v>18</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I69" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L69" t="s">
         <v>144</v>
@@ -3810,10 +3810,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>17</v>
@@ -3822,16 +3822,16 @@
         <v>18</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I70" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s">
         <v>145</v>
@@ -3851,10 +3851,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>17</v>
@@ -3863,16 +3863,16 @@
         <v>18</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I71" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s">
         <v>146</v>
@@ -3892,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>17</v>
@@ -3904,16 +3904,16 @@
         <v>18</v>
       </c>
       <c r="H72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="L72" t="s">
         <v>147</v>
@@ -3933,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>17</v>
@@ -3945,16 +3945,16 @@
         <v>18</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s">
         <v>148</v>
@@ -3974,10 +3974,10 @@
         <v>4</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>19</v>
@@ -3986,16 +3986,16 @@
         <v>14</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s">
         <v>137</v>
@@ -4015,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>19</v>
@@ -4027,16 +4027,16 @@
         <v>14</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I75" t="s">
         <v>15</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L75" t="s">
         <v>138</v>
@@ -4056,10 +4056,10 @@
         <v>4</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>19</v>
@@ -4068,16 +4068,16 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L76" t="s">
         <v>139</v>
@@ -4097,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>19</v>
@@ -4109,16 +4109,16 @@
         <v>14</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s">
         <v>140</v>
@@ -4138,10 +4138,10 @@
         <v>4</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>19</v>
@@ -4150,16 +4150,16 @@
         <v>14</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s">
         <v>141</v>
@@ -4179,10 +4179,10 @@
         <v>4</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>19</v>
@@ -4191,16 +4191,16 @@
         <v>14</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s">
         <v>142</v>
@@ -4220,10 +4220,10 @@
         <v>4</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>19</v>
@@ -4232,16 +4232,16 @@
         <v>14</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I80" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
         <v>143</v>
@@ -4261,10 +4261,10 @@
         <v>4</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>19</v>
@@ -4273,16 +4273,16 @@
         <v>14</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s">
         <v>144</v>
@@ -4302,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>19</v>
@@ -4314,16 +4314,16 @@
         <v>14</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s">
         <v>145</v>
@@ -4343,10 +4343,10 @@
         <v>4</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>19</v>
@@ -4355,16 +4355,16 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="L83" t="s">
         <v>146</v>
@@ -4384,10 +4384,10 @@
         <v>4</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>19</v>
@@ -4396,16 +4396,16 @@
         <v>14</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L84" t="s">
         <v>147</v>
@@ -4425,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>19</v>
@@ -4437,16 +4437,16 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I85" t="s">
         <v>15</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L85" t="s">
         <v>148</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>19</v>
@@ -4478,16 +4478,16 @@
         <v>16</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>100</v>
@@ -4507,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>19</v>
@@ -4519,16 +4519,16 @@
         <v>16</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>101</v>
@@ -4548,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>19</v>
@@ -4560,16 +4560,16 @@
         <v>16</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I88" t="s">
         <v>15</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>102</v>
@@ -4589,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>19</v>
@@ -4601,16 +4601,16 @@
         <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>103</v>
@@ -4630,10 +4630,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>19</v>
@@ -4642,16 +4642,16 @@
         <v>16</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I90" t="s">
         <v>15</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>104</v>
@@ -4671,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>19</v>
@@ -4683,16 +4683,16 @@
         <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>105</v>
@@ -4712,10 +4712,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>19</v>
@@ -4724,16 +4724,16 @@
         <v>16</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I92" t="s">
         <v>15</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>106</v>
@@ -4753,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>19</v>
@@ -4765,16 +4765,16 @@
         <v>16</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>107</v>
@@ -4794,10 +4794,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>19</v>
@@ -4806,16 +4806,16 @@
         <v>16</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>108</v>
@@ -4835,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>19</v>
@@ -4847,16 +4847,16 @@
         <v>16</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>109</v>
@@ -4876,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>19</v>
@@ -4888,16 +4888,16 @@
         <v>16</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>110</v>
@@ -4917,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>19</v>
@@ -4929,16 +4929,16 @@
         <v>16</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>111</v>
@@ -4958,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>19</v>
@@ -4970,16 +4970,16 @@
         <v>18</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>112</v>
@@ -4999,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>19</v>
@@ -5011,16 +5011,16 @@
         <v>18</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I99" t="s">
         <v>15</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>113</v>
@@ -5040,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>19</v>
@@ -5052,16 +5052,16 @@
         <v>18</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="I100" t="s">
         <v>15</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>114</v>
@@ -5081,10 +5081,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>19</v>
@@ -5093,16 +5093,16 @@
         <v>18</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>115</v>
@@ -5122,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>19</v>
@@ -5134,16 +5134,16 @@
         <v>18</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I102" t="s">
         <v>15</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>116</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>19</v>
@@ -5175,16 +5175,16 @@
         <v>18</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I103" t="s">
         <v>15</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>117</v>
@@ -5204,10 +5204,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>19</v>
@@ -5216,16 +5216,16 @@
         <v>18</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I104" t="s">
         <v>15</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>118</v>
@@ -5245,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>19</v>
@@ -5257,16 +5257,16 @@
         <v>18</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I105" t="s">
         <v>15</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>119</v>
@@ -5286,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>19</v>
@@ -5298,16 +5298,16 @@
         <v>18</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I106" t="s">
         <v>15</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>120</v>
@@ -5327,10 +5327,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>19</v>
@@ -5339,16 +5339,16 @@
         <v>18</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>121</v>
@@ -5368,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>19</v>
@@ -5380,16 +5380,16 @@
         <v>18</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="I108" t="s">
         <v>15</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>122</v>
@@ -5409,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>19</v>
@@ -5421,16 +5421,16 @@
         <v>18</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="I109" t="s">
         <v>15</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>123</v>

--- a/projects/tRNAseq_third-gen/sample_list.xlsx
+++ b/projects/tRNAseq_third-gen/sample_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/tRNAseq_third-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F89F5B-0370-C24B-A511-9929839A1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93125A1-2AA7-ED43-A07A-AA6DB9A95E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="5060" windowWidth="22900" windowHeight="11960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3300" windowWidth="24960" windowHeight="13720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="266">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -87,102 +87,6 @@
     <t>D503</t>
   </si>
   <si>
-    <t>100p1</t>
-  </si>
-  <si>
-    <t>100p2</t>
-  </si>
-  <si>
-    <t>100p3</t>
-  </si>
-  <si>
-    <t>100p4</t>
-  </si>
-  <si>
-    <t>85p1</t>
-  </si>
-  <si>
-    <t>85p2</t>
-  </si>
-  <si>
-    <t>85p3</t>
-  </si>
-  <si>
-    <t>85p4</t>
-  </si>
-  <si>
-    <t>70p1</t>
-  </si>
-  <si>
-    <t>70p2</t>
-  </si>
-  <si>
-    <t>70p3</t>
-  </si>
-  <si>
-    <t>70p4</t>
-  </si>
-  <si>
-    <t>55p1</t>
-  </si>
-  <si>
-    <t>55p2</t>
-  </si>
-  <si>
-    <t>55p3</t>
-  </si>
-  <si>
-    <t>55p4</t>
-  </si>
-  <si>
-    <t>40p1</t>
-  </si>
-  <si>
-    <t>40p2</t>
-  </si>
-  <si>
-    <t>40p3</t>
-  </si>
-  <si>
-    <t>40p4</t>
-  </si>
-  <si>
-    <t>25p1</t>
-  </si>
-  <si>
-    <t>25p2</t>
-  </si>
-  <si>
-    <t>25p3</t>
-  </si>
-  <si>
-    <t>25p4</t>
-  </si>
-  <si>
-    <t>10p1</t>
-  </si>
-  <si>
-    <t>10p2</t>
-  </si>
-  <si>
-    <t>10p3</t>
-  </si>
-  <si>
-    <t>10p4</t>
-  </si>
-  <si>
-    <t>0p1</t>
-  </si>
-  <si>
-    <t>0p2</t>
-  </si>
-  <si>
-    <t>0p3</t>
-  </si>
-  <si>
-    <t>0p4</t>
-  </si>
-  <si>
     <t>0m_1</t>
   </si>
   <si>
@@ -426,18 +330,6 @@
     <t>0p_90m</t>
   </si>
   <si>
-    <t>0p_90m1</t>
-  </si>
-  <si>
-    <t>0p_90m2</t>
-  </si>
-  <si>
-    <t>0p_90m3</t>
-  </si>
-  <si>
-    <t>0p_90m4</t>
-  </si>
-  <si>
     <t>0m</t>
   </si>
   <si>
@@ -501,15 +393,6 @@
     <t>l9Sp</t>
   </si>
   <si>
-    <t>l10Sp</t>
-  </si>
-  <si>
-    <t>l11Sp</t>
-  </si>
-  <si>
-    <t>l12Sp</t>
-  </si>
-  <si>
     <t>Percent charge</t>
   </si>
   <si>
@@ -519,77 +402,434 @@
     <t>Acylation-half-life</t>
   </si>
   <si>
-    <t>NoLeu</t>
-  </si>
-  <si>
-    <t>NoArg</t>
-  </si>
-  <si>
     <t>Sample name</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>P1_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P1_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P2_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P2_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P3_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P3_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P4_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P4_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P5_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P5_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P6_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P6_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P7_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P7_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P8_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P8_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P9_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P9_R2.fastq.bz2</t>
+    <t>2022-12-28/P1_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P1_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P2_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P2_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P3_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P3_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P4_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P4_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P5_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P5_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P6_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P6_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P7_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P7_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P8_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P8_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P9_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2022-12-28/P9_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P6_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P6_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>8h_p1</t>
+  </si>
+  <si>
+    <t>8h_p2</t>
+  </si>
+  <si>
+    <t>8h_p3</t>
+  </si>
+  <si>
+    <t>8h_p4</t>
+  </si>
+  <si>
+    <t>8h_p5</t>
+  </si>
+  <si>
+    <t>8h_p6</t>
+  </si>
+  <si>
+    <t>8h_p7</t>
+  </si>
+  <si>
+    <t>8h_p8</t>
+  </si>
+  <si>
+    <t>8h_p9</t>
+  </si>
+  <si>
+    <t>2023-02-28/P7_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P7_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>Barcode test</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>2Q1</t>
+  </si>
+  <si>
+    <t>2Q2</t>
+  </si>
+  <si>
+    <t>2Q3</t>
+  </si>
+  <si>
+    <t>2Q4</t>
+  </si>
+  <si>
+    <t>2Q5</t>
+  </si>
+  <si>
+    <t>2Q6</t>
+  </si>
+  <si>
+    <t>GQ1</t>
+  </si>
+  <si>
+    <t>GQ2</t>
+  </si>
+  <si>
+    <t>GQ3</t>
+  </si>
+  <si>
+    <t>GQ4</t>
+  </si>
+  <si>
+    <t>GQ5</t>
+  </si>
+  <si>
+    <t>GQ6</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HL1</t>
+  </si>
+  <si>
+    <t>HL2</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>HQ1</t>
+  </si>
+  <si>
+    <t>HQ2</t>
+  </si>
+  <si>
+    <t>HG1</t>
+  </si>
+  <si>
+    <t>HGL1</t>
+  </si>
+  <si>
+    <t>HGL2</t>
+  </si>
+  <si>
+    <t>HGR1</t>
+  </si>
+  <si>
+    <t>HGR2</t>
+  </si>
+  <si>
+    <t>HGQ1</t>
+  </si>
+  <si>
+    <t>HGQ2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P8_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P8_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P9_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P9_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P10_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P10_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>D504</t>
+  </si>
+  <si>
+    <t>293t-NoLeu</t>
+  </si>
+  <si>
+    <t>293t-NoArg</t>
+  </si>
+  <si>
+    <t>293t-NoGln</t>
+  </si>
+  <si>
+    <t>HCT116-Depletion</t>
+  </si>
+  <si>
+    <t>100p_0m</t>
+  </si>
+  <si>
+    <t>2023-02-28/P4_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P4_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P1_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P1_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>100p1_v1</t>
+  </si>
+  <si>
+    <t>100p3_v2</t>
+  </si>
+  <si>
+    <t>85p1_v1</t>
+  </si>
+  <si>
+    <t>85p2_v1</t>
+  </si>
+  <si>
+    <t>85p4_v1</t>
+  </si>
+  <si>
+    <t>70p1_v1</t>
+  </si>
+  <si>
+    <t>55p1_v1</t>
+  </si>
+  <si>
+    <t>55p3_v1</t>
+  </si>
+  <si>
+    <t>40p1_v1</t>
+  </si>
+  <si>
+    <t>40p2_v1</t>
+  </si>
+  <si>
+    <t>40p4_v1</t>
+  </si>
+  <si>
+    <t>25p1_v1</t>
+  </si>
+  <si>
+    <t>10p1_v1</t>
+  </si>
+  <si>
+    <t>10p3_v1</t>
+  </si>
+  <si>
+    <t>0p1_v1</t>
+  </si>
+  <si>
+    <t>0p2_v1</t>
+  </si>
+  <si>
+    <t>0p4_v1</t>
+  </si>
+  <si>
+    <t>0p_90m1_v1</t>
+  </si>
+  <si>
+    <t>0p_90m2_v1</t>
+  </si>
+  <si>
+    <t>0p_90m3_v1</t>
+  </si>
+  <si>
+    <t>0p_90m4_v1</t>
+  </si>
+  <si>
+    <t>0m_p1_v2</t>
+  </si>
+  <si>
+    <t>0m_p2_v2</t>
+  </si>
+  <si>
+    <t>0m_p3_v2</t>
+  </si>
+  <si>
+    <t>0m_p4_v2</t>
+  </si>
+  <si>
+    <t>85p3_v2</t>
+  </si>
+  <si>
+    <t>85p1_v2</t>
+  </si>
+  <si>
+    <t>85p2_v2</t>
+  </si>
+  <si>
+    <t>85p4_v2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P2_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P2_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>70p1_v2</t>
+  </si>
+  <si>
+    <t>70p2_v2</t>
+  </si>
+  <si>
+    <t>70p3_v2</t>
+  </si>
+  <si>
+    <t>70p4_v2</t>
+  </si>
+  <si>
+    <t>70p5_v2</t>
+  </si>
+  <si>
+    <t>55p1_v2</t>
+  </si>
+  <si>
+    <t>55p2_v2</t>
+  </si>
+  <si>
+    <t>55p3_v2</t>
+  </si>
+  <si>
+    <t>55p4_v2</t>
+  </si>
+  <si>
+    <t>55p5_v2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P3_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P3_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>40p1_v2</t>
+  </si>
+  <si>
+    <t>40p2_v2</t>
+  </si>
+  <si>
+    <t>40p3_v2</t>
+  </si>
+  <si>
+    <t>40p4_v2</t>
+  </si>
+  <si>
+    <t>25p1_v2</t>
+  </si>
+  <si>
+    <t>25p2_v2</t>
+  </si>
+  <si>
+    <t>25p3_v2</t>
+  </si>
+  <si>
+    <t>25p4_v2</t>
+  </si>
+  <si>
+    <t>25p5_v2</t>
+  </si>
+  <si>
+    <t>25p6_v2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P5_R1.fastq.bz2</t>
+  </si>
+  <si>
+    <t>2023-02-28/P5_R2.fastq.bz2</t>
+  </si>
+  <si>
+    <t>10p1_v2</t>
+  </si>
+  <si>
+    <t>10p2_v2</t>
+  </si>
+  <si>
+    <t>10p3_v2</t>
+  </si>
+  <si>
+    <t>10p4_v2</t>
+  </si>
+  <si>
+    <t>10p5_v2</t>
+  </si>
+  <si>
+    <t>0p1_v2</t>
+  </si>
+  <si>
+    <t>0p2_v2</t>
+  </si>
+  <si>
+    <t>0p3_v2</t>
+  </si>
+  <si>
+    <t>0p4_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -609,6 +849,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,7 +902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -944,7 +1190,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,20 +1198,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="115" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="10" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
@@ -1013,19 +1259,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1034,19 +1280,19 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1054,40 +1300,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1095,60 +1341,60 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1157,60 +1403,60 @@
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1218,40 +1464,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1259,122 +1505,122 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1382,40 +1628,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1423,19 +1669,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
@@ -1444,19 +1690,19 @@
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1464,40 +1710,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1505,19 +1751,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -1526,39 +1772,39 @@
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
@@ -1567,19 +1813,19 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -1587,40 +1833,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -1628,19 +1874,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
@@ -1649,19 +1895,19 @@
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -1669,101 +1915,101 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
+        <v>235</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
-      </c>
-      <c r="L18" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
+        <v>236</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>128</v>
+        <v>237</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
@@ -1772,60 +2018,60 @@
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
+        <v>208</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -1833,19 +2079,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
+        <v>209</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -1854,80 +2100,80 @@
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
+        <v>238</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>129</v>
+        <v>239</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -1936,80 +2182,80 @@
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
+        <v>240</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
+        <v>241</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -2018,39 +2264,39 @@
         <v>18</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
+        <v>242</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
@@ -2059,203 +2305,203 @@
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
-      </c>
-      <c r="L27" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K29" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>13</v>
@@ -2264,244 +2510,244 @@
         <v>18</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L32" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L33" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K35" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K36" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="L37" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -2510,39 +2756,39 @@
         <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>167</v>
+      <c r="J38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
       </c>
       <c r="L38" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>17</v>
@@ -2551,39 +2797,39 @@
         <v>14</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>167</v>
+      <c r="J39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
       </c>
       <c r="L39" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>17</v>
@@ -2592,39 +2838,39 @@
         <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>167</v>
+      <c r="J40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>17</v>
@@ -2633,121 +2879,121 @@
         <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>167</v>
+      <c r="J41" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
       </c>
       <c r="L41" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>167</v>
+      <c r="J42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
       </c>
       <c r="L42" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>167</v>
+      <c r="J43" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" t="s">
+        <v>122</v>
       </c>
       <c r="L43" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>17</v>
@@ -2756,39 +3002,39 @@
         <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>167</v>
+      <c r="J44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" t="s">
+        <v>122</v>
       </c>
       <c r="L44" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>17</v>
@@ -2797,19 +3043,19 @@
         <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>167</v>
+      <c r="J45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" t="s">
+        <v>122</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="M45">
         <v>8</v>
@@ -2817,573 +3063,573 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>167</v>
+      <c r="J46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" t="s">
+        <v>122</v>
       </c>
       <c r="L46" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>167</v>
+      <c r="J47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
       </c>
       <c r="L47" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>167</v>
+      <c r="J48" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" t="s">
+        <v>122</v>
       </c>
       <c r="L48" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>167</v>
+      <c r="J49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" t="s">
+        <v>122</v>
       </c>
       <c r="L49" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="M49">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>167</v>
+      <c r="J50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" t="s">
+        <v>122</v>
       </c>
       <c r="L50" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>167</v>
+      <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" t="s">
+        <v>122</v>
       </c>
       <c r="L51" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>167</v>
+      <c r="J52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>167</v>
+      <c r="J53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" t="s">
+        <v>122</v>
       </c>
       <c r="L53" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>167</v>
+      <c r="J54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" t="s">
+        <v>122</v>
       </c>
       <c r="L54" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>167</v>
+      <c r="J55" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" t="s">
+        <v>122</v>
       </c>
       <c r="L55" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="M55">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>167</v>
+      <c r="J56" t="s">
+        <v>123</v>
+      </c>
+      <c r="K56" t="s">
+        <v>122</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>167</v>
+      <c r="J57" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" t="s">
+        <v>122</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>167</v>
+      <c r="J58" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58" t="s">
+        <v>122</v>
       </c>
       <c r="L58" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="M58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>167</v>
+      <c r="J59" t="s">
+        <v>123</v>
+      </c>
+      <c r="K59" t="s">
+        <v>122</v>
       </c>
       <c r="L59" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="M59">
         <v>10</v>
@@ -3391,60 +3637,60 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
         <v>15</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L60" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="M60">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>17</v>
@@ -3453,1993 +3699,4357 @@
         <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M61">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="I64" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="I66" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L66" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="I67" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L67" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M67">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I68" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L68" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="I69" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L69" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I70" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L70" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I71" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L71" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L72" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="M72">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L73" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L74" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L75" t="s">
+        <v>104</v>
+      </c>
+      <c r="M75">
         <v>4</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L75" t="s">
-        <v>138</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L76" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L77" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L78" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L79" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L80" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L81" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M81">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L82" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="I83" t="s">
         <v>15</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L83" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="M83">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L84" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="M84">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
         <v>15</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L85" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M85">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
+      </c>
+      <c r="L86" t="s">
+        <v>103</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="L87" t="s">
+        <v>104</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="I88" t="s">
         <v>15</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
+      </c>
+      <c r="L88" t="s">
+        <v>105</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>103</v>
+        <v>126</v>
+      </c>
+      <c r="L89" t="s">
+        <v>106</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="I90" t="s">
         <v>15</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="L90" t="s">
+        <v>107</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>105</v>
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="L91" t="s">
+        <v>108</v>
       </c>
       <c r="M91">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="I92" t="s">
         <v>15</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
+      </c>
+      <c r="L92" t="s">
+        <v>109</v>
       </c>
       <c r="M92">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="L93" t="s">
+        <v>110</v>
       </c>
       <c r="M93">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="I94" t="s">
         <v>15</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="L94" t="s">
+        <v>111</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M96">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="L97" t="s">
+        <v>102</v>
       </c>
       <c r="M97">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>112</v>
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="L98" t="s">
+        <v>103</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>113</v>
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I99" t="s">
         <v>15</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
+      </c>
+      <c r="L99" t="s">
+        <v>104</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>114</v>
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="I100" t="s">
         <v>15</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="L100" t="s">
+        <v>105</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>115</v>
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="L101" t="s">
+        <v>106</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>116</v>
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="I102" t="s">
         <v>15</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="L102" t="s">
+        <v>107</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="I103" t="s">
         <v>15</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="L103" t="s">
+        <v>108</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>118</v>
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="I104" t="s">
         <v>15</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="L104" t="s">
+        <v>109</v>
       </c>
       <c r="M104">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>119</v>
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="I105" t="s">
         <v>15</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="L105" t="s">
+        <v>110</v>
       </c>
       <c r="M105">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I106" t="s">
         <v>15</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="L106" t="s">
+        <v>111</v>
       </c>
       <c r="M106">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>121</v>
+        <v>67</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="L107" t="s">
+        <v>112</v>
       </c>
       <c r="M107">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I108" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="L108" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M108">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H118" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I109" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="B141" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L109" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M109">
+      <c r="B147" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M147">
+        <v>7</v>
+      </c>
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M148">
+        <v>8</v>
+      </c>
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M149">
+        <v>9</v>
+      </c>
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M150">
+        <v>10</v>
+      </c>
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M151">
+        <v>11</v>
+      </c>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M152">
         <v>12</v>
       </c>
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M156">
+        <v>4</v>
+      </c>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M158">
+        <v>6</v>
+      </c>
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M159">
+        <v>7</v>
+      </c>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M160">
+        <v>8</v>
+      </c>
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M161">
+        <v>9</v>
+      </c>
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I162" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M162">
+        <v>10</v>
+      </c>
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I163" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M163">
+        <v>11</v>
+      </c>
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I164" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M164">
+        <v>12</v>
+      </c>
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I165" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M165">
+        <v>13</v>
+      </c>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I166" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M166">
+        <v>14</v>
+      </c>
+      <c r="O166" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
